--- a/Документация/WebTours_Профиль_нагрузки_v1_2_Новая_статистика.xlsx
+++ b/Документация/WebTours_Профиль_нагрузки_v1_2_Новая_статистика.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naidc\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naidc\OneDrive\Документы\GitHub\IBSLoadRunner\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF106311-E3AC-4401-91C2-2FEA91C6B366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE85F7FD-FCC5-4E80-8445-BD235E28D591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
@@ -504,12 +504,20 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1358,71 +1366,91 @@
   </borders>
   <cellStyleXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1443,67 +1471,47 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1512,16 +1520,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1530,39 +1537,35 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1575,8 +1578,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="66"/>
+    <xf numFmtId="1" fontId="3" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="66"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="86"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1586,7 +1590,12 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="86"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="86" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="38" borderId="2" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="106">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1701,22 +1710,22 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.0"/>
+      <numFmt numFmtId="166" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
+      <numFmt numFmtId="167" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
+      <numFmt numFmtId="168" formatCode="0.00000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
+      <numFmt numFmtId="169" formatCode="0.000000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2467,8 +2476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="C34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2560,16 +2569,16 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="52">
-        <v>1</v>
-      </c>
-      <c r="D2" s="54">
+      <c r="C2" s="49">
+        <v>1</v>
+      </c>
+      <c r="D2" s="51">
         <f>VLOOKUP(A2,$M$1:$W$9,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -2601,14 +2610,14 @@
       <c r="N2" s="23">
         <v>2.7475999999999998</v>
       </c>
-      <c r="O2" s="49">
+      <c r="O2" s="46">
         <v>30</v>
       </c>
-      <c r="P2" s="50">
+      <c r="P2" s="47">
         <f>N2+O2</f>
         <v>32.747599999999998</v>
       </c>
-      <c r="Q2" s="58">
+      <c r="Q2" s="55">
         <v>40</v>
       </c>
       <c r="R2" s="17">
@@ -2625,7 +2634,7 @@
         <f>ROUND(R2*S2*T2,0)</f>
         <v>60</v>
       </c>
-      <c r="V2" s="31">
+      <c r="V2" s="30">
         <f t="shared" ref="V2:V7" si="2">R2/W$2</f>
         <v>0.2857142857142857</v>
       </c>
@@ -2635,16 +2644,16 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="52">
-        <v>1</v>
-      </c>
-      <c r="D3" s="55">
+      <c r="B3" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="49">
+        <v>1</v>
+      </c>
+      <c r="D3" s="52">
         <f>VLOOKUP(A3,$M$1:$W$9,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -2676,14 +2685,14 @@
       <c r="N3" s="23">
         <v>2.1225000000000001</v>
       </c>
-      <c r="O3" s="49">
+      <c r="O3" s="46">
         <v>20.0014</v>
       </c>
-      <c r="P3" s="50">
+      <c r="P3" s="47">
         <f>N3+O3</f>
         <v>22.123899999999999</v>
       </c>
-      <c r="Q3" s="32">
+      <c r="Q3" s="31">
         <v>51</v>
       </c>
       <c r="R3" s="17">
@@ -2700,22 +2709,22 @@
         <f>ROUND(R3*S3*T3,0)</f>
         <v>24</v>
       </c>
-      <c r="V3" s="31">
+      <c r="V3" s="30">
         <f t="shared" si="2"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="52">
-        <v>1</v>
-      </c>
-      <c r="D4" s="55">
+      <c r="C4" s="49">
+        <v>1</v>
+      </c>
+      <c r="D4" s="52">
         <v>2</v>
       </c>
       <c r="E4">
@@ -2746,14 +2755,14 @@
       <c r="N4" s="23">
         <v>1.224</v>
       </c>
-      <c r="O4" s="49">
+      <c r="O4" s="46">
         <v>10</v>
       </c>
-      <c r="P4" s="50">
+      <c r="P4" s="47">
         <f t="shared" ref="P4:P7" si="4">N4+O4</f>
         <v>11.224</v>
       </c>
-      <c r="Q4" s="32">
+      <c r="Q4" s="31">
         <v>37</v>
       </c>
       <c r="R4" s="17">
@@ -2770,22 +2779,22 @@
         <f>ROUND(R4*S4*T4,0)</f>
         <v>32</v>
       </c>
-      <c r="V4" s="31">
+      <c r="V4" s="30">
         <f t="shared" si="2"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="52">
-        <v>1</v>
-      </c>
-      <c r="D5" s="55">
+      <c r="C5" s="49">
+        <v>1</v>
+      </c>
+      <c r="D5" s="52">
         <f>VLOOKUP(A5,$M$1:$W$9,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -2817,14 +2826,14 @@
       <c r="N5" s="23">
         <v>2.4493999999999998</v>
       </c>
-      <c r="O5" s="49">
+      <c r="O5" s="46">
         <v>20</v>
       </c>
-      <c r="P5" s="50">
+      <c r="P5" s="47">
         <f t="shared" si="4"/>
         <v>22.449400000000001</v>
       </c>
-      <c r="Q5" s="32">
+      <c r="Q5" s="31">
         <v>35</v>
       </c>
       <c r="R5" s="17">
@@ -2841,22 +2850,22 @@
         <f>ROUND(R5*S5*T5,0)</f>
         <v>34</v>
       </c>
-      <c r="V5" s="31">
+      <c r="V5" s="30">
         <f t="shared" si="2"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="52">
-        <v>1</v>
-      </c>
-      <c r="D6" s="55">
+      <c r="C6" s="49">
+        <v>1</v>
+      </c>
+      <c r="D6" s="52">
         <f>VLOOKUP(A6,$M$1:$W$9,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -2888,14 +2897,14 @@
       <c r="N6" s="23">
         <v>2.8319999999999999</v>
       </c>
-      <c r="O6" s="49">
+      <c r="O6" s="46">
         <v>20</v>
       </c>
-      <c r="P6" s="50">
+      <c r="P6" s="47">
         <f t="shared" si="4"/>
         <v>22.832000000000001</v>
       </c>
-      <c r="Q6" s="32">
+      <c r="Q6" s="31">
         <v>100</v>
       </c>
       <c r="R6" s="17">
@@ -2912,22 +2921,22 @@
         <f>ROUND(R6*S6*T6,0)</f>
         <v>12</v>
       </c>
-      <c r="V6" s="31">
+      <c r="V6" s="30">
         <f t="shared" si="2"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="52">
-        <v>1</v>
-      </c>
-      <c r="D7" s="55">
+      <c r="C7" s="49">
+        <v>1</v>
+      </c>
+      <c r="D7" s="52">
         <f>VLOOKUP(A7,$M$1:$W$9,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -2959,14 +2968,14 @@
       <c r="N7" s="23">
         <v>1.0078</v>
       </c>
-      <c r="O7" s="49">
+      <c r="O7" s="46">
         <v>20</v>
       </c>
-      <c r="P7" s="50">
+      <c r="P7" s="47">
         <f t="shared" si="4"/>
         <v>21.0078</v>
       </c>
-      <c r="Q7" s="32">
+      <c r="Q7" s="31">
         <v>100</v>
       </c>
       <c r="R7" s="17">
@@ -2983,22 +2992,22 @@
         <f>SUM(U2:U6)</f>
         <v>162</v>
       </c>
-      <c r="V7" s="31">
+      <c r="V7" s="30">
         <f t="shared" si="2"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="52">
-        <v>1</v>
-      </c>
-      <c r="D8" s="55">
+      <c r="C8" s="49">
+        <v>1</v>
+      </c>
+      <c r="D8" s="52">
         <f>VLOOKUP(A8,$M$1:$W$9,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -3024,22 +3033,22 @@
       <c r="J8" s="19">
         <v>95.529411764705884</v>
       </c>
-      <c r="V8" s="31">
+      <c r="V8" s="30">
         <f>SUM(V2:V7)</f>
         <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="52">
-        <v>1</v>
-      </c>
-      <c r="D9" s="53">
+      <c r="C9" s="49">
+        <v>1</v>
+      </c>
+      <c r="D9" s="50">
         <v>2</v>
       </c>
       <c r="E9">
@@ -3066,16 +3075,16 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="29">
-        <v>1</v>
-      </c>
-      <c r="D10" s="40">
+      <c r="C10" s="28">
+        <v>1</v>
+      </c>
+      <c r="D10" s="39">
         <f t="shared" ref="D10:D19" si="9">VLOOKUP(A10,$M$1:$W$9,6,FALSE)</f>
         <v>1</v>
       </c>
@@ -3103,16 +3112,16 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="29">
-        <v>1</v>
-      </c>
-      <c r="D11" s="40">
+      <c r="B11" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="28">
+        <v>1</v>
+      </c>
+      <c r="D11" s="39">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3140,16 +3149,16 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="29">
-        <v>1</v>
-      </c>
-      <c r="D12" s="40">
+      <c r="C12" s="28">
+        <v>1</v>
+      </c>
+      <c r="D12" s="39">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3177,16 +3186,16 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="29">
-        <v>1</v>
-      </c>
-      <c r="D13" s="40">
+      <c r="C13" s="28">
+        <v>1</v>
+      </c>
+      <c r="D13" s="39">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3214,16 +3223,16 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="29">
-        <v>1</v>
-      </c>
-      <c r="D14" s="41">
+      <c r="C14" s="28">
+        <v>1</v>
+      </c>
+      <c r="D14" s="40">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3251,16 +3260,16 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="29">
-        <v>1</v>
-      </c>
-      <c r="D15" s="42">
+      <c r="C15" s="28">
+        <v>1</v>
+      </c>
+      <c r="D15" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3282,16 +3291,16 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="29">
-        <v>1</v>
-      </c>
-      <c r="D16" s="40">
+      <c r="C16" s="28">
+        <v>1</v>
+      </c>
+      <c r="D16" s="39">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3313,16 +3322,16 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="29">
-        <v>1</v>
-      </c>
-      <c r="D17" s="40">
+      <c r="C17" s="28">
+        <v>1</v>
+      </c>
+      <c r="D17" s="39">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3344,16 +3353,16 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="29">
-        <v>1</v>
-      </c>
-      <c r="D18" s="40">
+      <c r="C18" s="28">
+        <v>1</v>
+      </c>
+      <c r="D18" s="39">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3375,16 +3384,16 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="52">
-        <v>1</v>
-      </c>
-      <c r="D19" s="54">
+      <c r="C19" s="49">
+        <v>1</v>
+      </c>
+      <c r="D19" s="51">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3406,16 +3415,16 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="52">
-        <v>1</v>
-      </c>
-      <c r="D20" s="55">
+      <c r="B20" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="49">
+        <v>1</v>
+      </c>
+      <c r="D20" s="52">
         <v>1</v>
       </c>
       <c r="E20">
@@ -3436,16 +3445,16 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="52">
-        <v>1</v>
-      </c>
-      <c r="D21" s="55">
+      <c r="C21" s="49">
+        <v>1</v>
+      </c>
+      <c r="D21" s="52">
         <f>VLOOKUP(A21,$M$1:$W$9,6,FALSE)</f>
         <v>1</v>
       </c>
@@ -3467,16 +3476,16 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="52">
-        <v>1</v>
-      </c>
-      <c r="D22" s="53">
+      <c r="C22" s="49">
+        <v>1</v>
+      </c>
+      <c r="D22" s="50">
         <f>VLOOKUP(A22,$M$1:$W$9,6,FALSE)</f>
         <v>1</v>
       </c>
@@ -3498,16 +3507,16 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="29">
-        <v>1</v>
-      </c>
-      <c r="D23" s="40">
+      <c r="C23" s="28">
+        <v>1</v>
+      </c>
+      <c r="D23" s="39">
         <f>VLOOKUP(A23,$M$1:$W$9,6,FALSE)</f>
         <v>1</v>
       </c>
@@ -3529,16 +3538,16 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="29">
-        <v>1</v>
-      </c>
-      <c r="D24" s="40">
+      <c r="B24" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="28">
+        <v>1</v>
+      </c>
+      <c r="D24" s="39">
         <f>VLOOKUP(A24,$M$1:$W$9,6,FALSE)</f>
         <v>1</v>
       </c>
@@ -3560,16 +3569,16 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="29">
-        <v>1</v>
-      </c>
-      <c r="D25" s="40">
+      <c r="C25" s="28">
+        <v>1</v>
+      </c>
+      <c r="D25" s="39">
         <v>1</v>
       </c>
       <c r="E25">
@@ -3590,16 +3599,16 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="29">
-        <v>1</v>
-      </c>
-      <c r="D26" s="40">
+      <c r="C26" s="28">
+        <v>1</v>
+      </c>
+      <c r="D26" s="39">
         <f t="shared" ref="D26:D31" si="11">VLOOKUP(A26,$M$1:$W$9,6,FALSE)</f>
         <v>1</v>
       </c>
@@ -3621,16 +3630,16 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="29">
-        <v>1</v>
-      </c>
-      <c r="D27" s="40">
+      <c r="C27" s="28">
+        <v>1</v>
+      </c>
+      <c r="D27" s="39">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
@@ -3652,16 +3661,16 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="29">
-        <v>1</v>
-      </c>
-      <c r="D28" s="42">
+      <c r="C28" s="28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="41">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
@@ -3683,16 +3692,16 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="40">
+      <c r="B29" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="28">
+        <v>1</v>
+      </c>
+      <c r="D29" s="39">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
@@ -3714,16 +3723,16 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="29">
-        <v>1</v>
-      </c>
-      <c r="D30" s="40">
+      <c r="C30" s="28">
+        <v>1</v>
+      </c>
+      <c r="D30" s="39">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
@@ -3745,16 +3754,16 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="29">
-        <v>1</v>
-      </c>
-      <c r="D31" s="41">
+      <c r="C31" s="28">
+        <v>1</v>
+      </c>
+      <c r="D31" s="40">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
@@ -3777,443 +3786,443 @@
     </row>
     <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="61"/>
+      <c r="B34" s="59"/>
     </row>
     <row r="35" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="45" t="s">
+      <c r="D35" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="47"/>
-      <c r="F35" s="46" t="s">
+      <c r="E35" s="44"/>
+      <c r="F35" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="28" t="s">
+      <c r="G35" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="H35" s="28" t="s">
+      <c r="H35" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="I35" s="28" t="s">
+      <c r="I35" s="27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="36">
+      <c r="B36" s="35">
         <v>520</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36" s="26">
         <f t="shared" ref="C36:C47" si="12">GETPIVOTDATA("Итого",$I$1,"transaction rq",A36)*3</f>
         <v>522.74267544855786</v>
       </c>
-      <c r="D36" s="56">
+      <c r="D36" s="53">
         <f>1-B36/C36</f>
         <v>5.2467027801095245E-3</v>
       </c>
-      <c r="E36" s="44"/>
-      <c r="F36" s="43" t="str">
+      <c r="E36" s="42"/>
+      <c r="F36" s="63" t="str">
         <f>VLOOKUP(A36,Соответствие!A:B,2,FALSE)</f>
         <v>Goto_Home</v>
       </c>
-      <c r="G36" s="48">
+      <c r="G36" s="45">
         <f>C36/3</f>
         <v>174.24755848285261</v>
       </c>
-      <c r="H36" s="29">
+      <c r="H36" s="28">
         <f>VLOOKUP(F36,SummaryReport!A:J,8,FALSE)</f>
         <v>174</v>
       </c>
-      <c r="I36" s="25">
+      <c r="I36" s="64">
         <f>1-G36/H36</f>
         <v>-1.4227499014518585E-3</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="36">
+      <c r="A37" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="35">
         <v>422</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C37" s="26">
         <f t="shared" si="12"/>
         <v>425.44537815126046</v>
       </c>
-      <c r="D37" s="56">
+      <c r="D37" s="53">
         <f>1-B37/C37</f>
         <v>8.0982855336966253E-3</v>
       </c>
-      <c r="E37" s="44"/>
-      <c r="F37" s="43" t="str">
+      <c r="E37" s="42"/>
+      <c r="F37" s="63" t="str">
         <f>VLOOKUP(A37,Соответствие!A:B,2,FALSE)</f>
         <v>Login</v>
       </c>
-      <c r="G37" s="48">
+      <c r="G37" s="45">
         <f t="shared" ref="G37:G47" si="13">C37/3</f>
         <v>141.81512605042016</v>
       </c>
-      <c r="H37" s="29">
+      <c r="H37" s="28">
         <f>VLOOKUP(F37,SummaryReport!A:J,8,FALSE)</f>
         <v>142</v>
       </c>
-      <c r="I37" s="25">
+      <c r="I37" s="64">
         <f t="shared" ref="I37:I47" si="14">1-G37/H37</f>
         <v>1.3019292223932499E-3</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="36">
+      <c r="B38" s="35">
         <v>305</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="26">
         <f t="shared" si="12"/>
         <v>318.85714285714283</v>
       </c>
-      <c r="D38" s="56">
+      <c r="D38" s="53">
         <f>1-B38/C38</f>
         <v>4.3458781362007093E-2</v>
       </c>
-      <c r="E38" s="44"/>
-      <c r="F38" s="43" t="str">
+      <c r="E38" s="42"/>
+      <c r="F38" s="63" t="str">
         <f>VLOOKUP(A38,Соответствие!A:B,2,FALSE)</f>
         <v>Goto_Flights</v>
       </c>
-      <c r="G38" s="48">
+      <c r="G38" s="45">
         <f t="shared" si="13"/>
         <v>106.28571428571428</v>
       </c>
-      <c r="H38" s="29">
+      <c r="H38" s="28">
         <f>VLOOKUP(F38,SummaryReport!A:J,8,FALSE)</f>
         <v>106</v>
       </c>
-      <c r="I38" s="25">
+      <c r="I38" s="64">
         <f t="shared" si="14"/>
         <v>-2.6954177897573484E-3</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="36">
+      <c r="B39" s="35">
         <v>282</v>
       </c>
-      <c r="C39" s="27">
+      <c r="C39" s="26">
         <f t="shared" si="12"/>
         <v>282.85714285714283</v>
       </c>
-      <c r="D39" s="57">
+      <c r="D39" s="54">
         <f t="shared" ref="D39:D48" si="15">1-B39/C39</f>
         <v>3.0303030303029388E-3</v>
       </c>
-      <c r="E39" s="44"/>
-      <c r="F39" s="43" t="str">
+      <c r="E39" s="42"/>
+      <c r="F39" s="63" t="str">
         <f>VLOOKUP(A39,Соответствие!A:B,2,FALSE)</f>
         <v>Search_Flight</v>
       </c>
-      <c r="G39" s="48">
+      <c r="G39" s="45">
         <f t="shared" si="13"/>
         <v>94.285714285714278</v>
       </c>
-      <c r="H39" s="29">
+      <c r="H39" s="28">
         <f>VLOOKUP(F39,SummaryReport!A:J,8,FALSE)</f>
         <v>95</v>
       </c>
-      <c r="I39" s="25">
+      <c r="I39" s="64">
         <f t="shared" si="14"/>
         <v>7.5187969924812581E-3</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="36">
+      <c r="B40" s="35">
         <v>270</v>
       </c>
-      <c r="C40" s="27">
+      <c r="C40" s="26">
         <f t="shared" si="12"/>
         <v>282.85714285714283</v>
       </c>
-      <c r="D40" s="57">
+      <c r="D40" s="54">
         <f t="shared" si="15"/>
         <v>4.5454545454545414E-2</v>
       </c>
-      <c r="E40" s="44"/>
-      <c r="F40" s="43" t="str">
+      <c r="E40" s="42"/>
+      <c r="F40" s="63" t="str">
         <f>VLOOKUP(A40,Соответствие!A:B,2,FALSE)</f>
         <v>Select_Flight</v>
       </c>
-      <c r="G40" s="48">
+      <c r="G40" s="45">
         <f>C40/3</f>
         <v>94.285714285714278</v>
       </c>
-      <c r="H40" s="29">
+      <c r="H40" s="28">
         <f>VLOOKUP(F40,SummaryReport!A:J,8,FALSE)</f>
         <v>95</v>
       </c>
-      <c r="I40" s="25">
+      <c r="I40" s="64">
         <f t="shared" si="14"/>
         <v>7.5187969924812581E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="36">
+      <c r="B41" s="35">
         <v>175</v>
       </c>
-      <c r="C41" s="27">
+      <c r="C41" s="26">
         <f t="shared" si="12"/>
         <v>180</v>
       </c>
-      <c r="D41" s="57">
+      <c r="D41" s="54">
         <f t="shared" si="15"/>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="E41" s="44"/>
-      <c r="F41" s="43" t="str">
+      <c r="E41" s="42"/>
+      <c r="F41" s="63" t="str">
         <f>VLOOKUP(A41,Соответствие!A:B,2,FALSE)</f>
         <v>Send_Payments</v>
       </c>
-      <c r="G41" s="48">
+      <c r="G41" s="45">
         <f t="shared" si="13"/>
         <v>60</v>
       </c>
-      <c r="H41" s="29">
+      <c r="H41" s="28">
         <f>VLOOKUP(F41,SummaryReport!A:J,8,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="I41" s="25">
+      <c r="I41" s="64">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="36">
+      <c r="B42" s="35">
         <v>280</v>
       </c>
-      <c r="C42" s="27">
+      <c r="C42" s="26">
         <f t="shared" si="12"/>
         <v>286.58823529411768</v>
       </c>
-      <c r="D42" s="57">
+      <c r="D42" s="54">
         <f t="shared" si="15"/>
         <v>2.298850574712652E-2</v>
       </c>
-      <c r="E42" s="51"/>
-      <c r="F42" s="43" t="str">
+      <c r="E42" s="48"/>
+      <c r="F42" s="63" t="str">
         <f>VLOOKUP(A42,Соответствие!A:B,2,FALSE)</f>
         <v>Goto_Itinerary</v>
       </c>
-      <c r="G42" s="48">
+      <c r="G42" s="45">
         <f t="shared" si="13"/>
         <v>95.529411764705898</v>
       </c>
-      <c r="H42" s="29">
+      <c r="H42" s="28">
         <f>VLOOKUP(F42,SummaryReport!A:J,8,FALSE)</f>
         <v>96</v>
       </c>
-      <c r="I42" s="25">
+      <c r="I42" s="64">
         <f>1-G42/H42</f>
         <v>4.9019607843135971E-3</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="36">
+      <c r="B43" s="35">
         <v>73</v>
       </c>
-      <c r="C43" s="27">
+      <c r="C43" s="26">
         <f t="shared" si="12"/>
         <v>70.588235294117652</v>
       </c>
-      <c r="D43" s="57">
+      <c r="D43" s="54">
         <f t="shared" si="15"/>
         <v>-3.4166666666666679E-2</v>
       </c>
-      <c r="E43" s="44"/>
-      <c r="F43" s="43" t="str">
+      <c r="E43" s="42"/>
+      <c r="F43" s="63" t="str">
         <f>VLOOKUP(A43,Соответствие!A:B,2,FALSE)</f>
         <v>Cancel_Ticket</v>
       </c>
-      <c r="G43" s="48">
+      <c r="G43" s="45">
         <f t="shared" si="13"/>
         <v>23.529411764705884</v>
       </c>
-      <c r="H43" s="29">
+      <c r="H43" s="28">
         <f>VLOOKUP(F43,SummaryReport!A:J,8,FALSE)</f>
         <v>24</v>
       </c>
-      <c r="I43" s="25">
+      <c r="I43" s="64">
         <f t="shared" si="14"/>
         <v>1.9607843137254832E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="36">
+      <c r="B44" s="35">
         <v>326</v>
       </c>
-      <c r="C44" s="27">
+      <c r="C44" s="26">
         <f t="shared" si="12"/>
         <v>322.58823529411768</v>
       </c>
-      <c r="D44" s="57">
+      <c r="D44" s="54">
         <f t="shared" si="15"/>
         <v>-1.0576221735959068E-2</v>
       </c>
-      <c r="E44" s="44"/>
-      <c r="F44" s="43" t="str">
+      <c r="E44" s="42"/>
+      <c r="F44" s="63" t="str">
         <f>VLOOKUP(A44,Соответствие!A:B,2,FALSE)</f>
         <v>Logout</v>
       </c>
-      <c r="G44" s="48">
+      <c r="G44" s="45">
         <f t="shared" si="13"/>
         <v>107.5294117647059</v>
       </c>
-      <c r="H44" s="29">
+      <c r="H44" s="28">
         <f>VLOOKUP(F44,SummaryReport!A:J,8,FALSE)</f>
         <v>108</v>
       </c>
-      <c r="I44" s="25">
+      <c r="I44" s="64">
         <f t="shared" si="14"/>
         <v>4.3572984749453703E-3</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="36">
+      <c r="B45" s="35">
         <v>97</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="26">
         <f t="shared" si="12"/>
         <v>97.297297297297305</v>
       </c>
-      <c r="D45" s="57">
+      <c r="D45" s="54">
         <f t="shared" si="15"/>
         <v>3.0555555555555891E-3</v>
       </c>
-      <c r="E45" s="44"/>
-      <c r="F45" s="43" t="str">
+      <c r="E45" s="42"/>
+      <c r="F45" s="63" t="str">
         <f>VLOOKUP(A45,Соответствие!A:B,2,FALSE)</f>
         <v>Goto_SignUpNow</v>
       </c>
-      <c r="G45" s="48">
+      <c r="G45" s="45">
         <f t="shared" si="13"/>
         <v>32.432432432432435</v>
       </c>
-      <c r="H45" s="29">
+      <c r="H45" s="28">
         <f>VLOOKUP(F45,SummaryReport!A:J,8,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="I45" s="25">
+      <c r="I45" s="64">
         <f t="shared" si="14"/>
         <v>-1.3513513513513598E-2</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="36">
+      <c r="B46" s="35">
         <v>97</v>
       </c>
-      <c r="C46" s="27">
+      <c r="C46" s="26">
         <f t="shared" si="12"/>
         <v>97.297297297297305</v>
       </c>
-      <c r="D46" s="57">
+      <c r="D46" s="54">
         <f t="shared" si="15"/>
         <v>3.0555555555555891E-3</v>
       </c>
-      <c r="E46" s="44"/>
-      <c r="F46" s="43" t="str">
+      <c r="E46" s="42"/>
+      <c r="F46" s="63" t="str">
         <f>VLOOKUP(A46,Соответствие!A:B,2,FALSE)</f>
         <v>Registration</v>
       </c>
-      <c r="G46" s="48">
+      <c r="G46" s="45">
         <f t="shared" si="13"/>
         <v>32.432432432432435</v>
       </c>
-      <c r="H46" s="29">
+      <c r="H46" s="28">
         <f>VLOOKUP(F46,SummaryReport!A:J,8,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="I46" s="25">
+      <c r="I46" s="64">
         <f t="shared" si="14"/>
         <v>-1.3513513513513598E-2</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="36">
+      <c r="B47" s="35">
         <v>97</v>
       </c>
-      <c r="C47" s="27">
+      <c r="C47" s="26">
         <f t="shared" si="12"/>
         <v>97.297297297297305</v>
       </c>
-      <c r="D47" s="57">
+      <c r="D47" s="54">
         <f t="shared" si="15"/>
         <v>3.0555555555555891E-3</v>
       </c>
-      <c r="E47" s="44"/>
-      <c r="F47" s="43" t="str">
+      <c r="E47" s="42"/>
+      <c r="F47" s="63" t="str">
         <f>VLOOKUP(A47,Соответствие!A:B,2,FALSE)</f>
-        <v>Registration</v>
-      </c>
-      <c r="G47" s="48">
+        <v>After_Registration</v>
+      </c>
+      <c r="G47" s="45">
         <f t="shared" si="13"/>
         <v>32.432432432432435</v>
       </c>
-      <c r="H47" s="29">
+      <c r="H47" s="28">
         <f>VLOOKUP(F47,SummaryReport!A:J,8,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="I47" s="25">
+      <c r="I47" s="64">
         <f t="shared" si="14"/>
         <v>-1.3513513513513598E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="39">
+      <c r="B48" s="38">
         <f>SUM(B36:B47)</f>
         <v>2944</v>
       </c>
-      <c r="C48" s="26">
+      <c r="C48" s="25">
         <f>SUM(C36:C47)</f>
         <v>2984.4160799454921</v>
       </c>
@@ -4223,17 +4232,17 @@
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="I49" s="30"/>
+      <c r="I49" s="29"/>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4250,7 +4259,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4372,7 +4381,7 @@
         <v>Переход на следуюущий эран после регистарции</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4385,7 +4394,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4394,680 +4403,680 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="57" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="63">
+      <c r="C2" s="57">
         <v>0.59799999999999998</v>
       </c>
-      <c r="D2" s="63">
+      <c r="D2" s="57">
         <v>1.286</v>
       </c>
-      <c r="E2" s="63">
+      <c r="E2" s="57">
         <v>2.1440000000000001</v>
       </c>
-      <c r="F2" s="63">
+      <c r="F2" s="57">
         <v>0.44</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="57">
         <v>1.881</v>
       </c>
-      <c r="H2" s="63">
+      <c r="H2" s="57">
         <v>175</v>
       </c>
-      <c r="I2" s="63">
-        <v>0</v>
-      </c>
-      <c r="J2" s="63">
+      <c r="I2" s="57">
+        <v>0</v>
+      </c>
+      <c r="J2" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="63">
+      <c r="C3" s="57">
         <v>0.19</v>
       </c>
-      <c r="D3" s="63">
+      <c r="D3" s="57">
         <v>0.23</v>
       </c>
-      <c r="E3" s="63">
+      <c r="E3" s="57">
         <v>0.34499999999999997</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="57">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="57">
         <v>0.27600000000000002</v>
       </c>
-      <c r="H3" s="63">
+      <c r="H3" s="57">
         <v>32</v>
       </c>
-      <c r="I3" s="63">
-        <v>0</v>
-      </c>
-      <c r="J3" s="63">
+      <c r="I3" s="57">
+        <v>0</v>
+      </c>
+      <c r="J3" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="63">
+      <c r="C4" s="57">
         <v>1E-3</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="57">
         <v>0.10199999999999999</v>
       </c>
-      <c r="E4" s="63">
+      <c r="E4" s="57">
         <v>0.218</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="57">
         <v>5.5E-2</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="57">
         <v>0.14799999999999999</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H4" s="57">
         <v>24</v>
       </c>
-      <c r="I4" s="63">
-        <v>0</v>
-      </c>
-      <c r="J4" s="63">
+      <c r="I4" s="57">
+        <v>0</v>
+      </c>
+      <c r="J4" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="57">
         <v>0.32</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D5" s="57">
         <v>0.377</v>
       </c>
-      <c r="E5" s="63">
+      <c r="E5" s="57">
         <v>0.54400000000000004</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="57">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="57">
         <v>0.438</v>
       </c>
-      <c r="H5" s="63">
+      <c r="H5" s="57">
         <v>106</v>
       </c>
-      <c r="I5" s="63">
-        <v>0</v>
-      </c>
-      <c r="J5" s="63">
+      <c r="I5" s="57">
+        <v>0</v>
+      </c>
+      <c r="J5" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="57">
         <v>0.14299999999999999</v>
       </c>
-      <c r="D6" s="63">
+      <c r="D6" s="57">
         <v>0.219</v>
       </c>
-      <c r="E6" s="63">
+      <c r="E6" s="57">
         <v>0.318</v>
       </c>
-      <c r="F6" s="63">
+      <c r="F6" s="57">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G6" s="57">
         <v>0.27</v>
       </c>
-      <c r="H6" s="63">
+      <c r="H6" s="57">
         <v>174</v>
       </c>
-      <c r="I6" s="63">
-        <v>0</v>
-      </c>
-      <c r="J6" s="63">
+      <c r="I6" s="57">
+        <v>0</v>
+      </c>
+      <c r="J6" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="63">
+      <c r="C7" s="57">
         <v>0.151</v>
       </c>
-      <c r="D7" s="63">
+      <c r="D7" s="57">
         <v>0.27</v>
       </c>
-      <c r="E7" s="63">
+      <c r="E7" s="57">
         <v>0.46800000000000003</v>
       </c>
-      <c r="F7" s="63">
+      <c r="F7" s="57">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="G7" s="63">
+      <c r="G7" s="57">
         <v>0.34399999999999997</v>
       </c>
-      <c r="H7" s="63">
+      <c r="H7" s="57">
         <v>96</v>
       </c>
-      <c r="I7" s="63">
-        <v>0</v>
-      </c>
-      <c r="J7" s="63">
+      <c r="I7" s="57">
+        <v>0</v>
+      </c>
+      <c r="J7" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="57">
         <v>0.125</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="57">
         <v>0.153</v>
       </c>
-      <c r="E8" s="63">
+      <c r="E8" s="57">
         <v>0.23499999999999999</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="57">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="G8" s="63">
+      <c r="G8" s="57">
         <v>0.20300000000000001</v>
       </c>
-      <c r="H8" s="63">
+      <c r="H8" s="57">
         <v>32</v>
       </c>
-      <c r="I8" s="63">
-        <v>0</v>
-      </c>
-      <c r="J8" s="63">
+      <c r="I8" s="57">
+        <v>0</v>
+      </c>
+      <c r="J8" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="57">
         <v>0.154</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="57">
         <v>0.33500000000000002</v>
       </c>
-      <c r="E9" s="63">
+      <c r="E9" s="57">
         <v>0.45</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="57">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="G9" s="63">
+      <c r="G9" s="57">
         <v>0.39900000000000002</v>
       </c>
-      <c r="H9" s="63">
+      <c r="H9" s="57">
         <v>142</v>
       </c>
-      <c r="I9" s="63">
-        <v>0</v>
-      </c>
-      <c r="J9" s="63">
+      <c r="I9" s="57">
+        <v>0</v>
+      </c>
+      <c r="J9" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="57">
         <v>0.13900000000000001</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="57">
         <v>0.22700000000000001</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="57">
         <v>0.373</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="57">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G10" s="57">
         <v>0.27600000000000002</v>
       </c>
-      <c r="H10" s="63">
+      <c r="H10" s="57">
         <v>108</v>
       </c>
-      <c r="I10" s="63">
-        <v>0</v>
-      </c>
-      <c r="J10" s="63">
+      <c r="I10" s="57">
+        <v>0</v>
+      </c>
+      <c r="J10" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="63">
+      <c r="C11" s="57">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="D11" s="63">
+      <c r="D11" s="57">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="E11" s="63">
+      <c r="E11" s="57">
         <v>0.158</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="57">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G11" s="63">
+      <c r="G11" s="57">
         <v>0.109</v>
       </c>
-      <c r="H11" s="63">
+      <c r="H11" s="57">
         <v>32</v>
       </c>
-      <c r="I11" s="63">
-        <v>0</v>
-      </c>
-      <c r="J11" s="63">
+      <c r="I11" s="57">
+        <v>0</v>
+      </c>
+      <c r="J11" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="63">
+      <c r="C12" s="57">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="D12" s="63">
+      <c r="D12" s="57">
         <v>0.112</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="57">
         <v>0.21099999999999999</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="57">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G12" s="57">
         <v>0.16200000000000001</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="57">
         <v>95</v>
       </c>
-      <c r="I12" s="63">
-        <v>0</v>
-      </c>
-      <c r="J12" s="63">
+      <c r="I12" s="57">
+        <v>0</v>
+      </c>
+      <c r="J12" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="63">
+      <c r="C13" s="57">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="D13" s="63">
+      <c r="D13" s="57">
         <v>0.126</v>
       </c>
-      <c r="E13" s="63">
+      <c r="E13" s="57">
         <v>0.24</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="57">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G13" s="63">
+      <c r="G13" s="57">
         <v>0.17100000000000001</v>
       </c>
-      <c r="H13" s="63">
+      <c r="H13" s="57">
         <v>95</v>
       </c>
-      <c r="I13" s="63">
-        <v>0</v>
-      </c>
-      <c r="J13" s="63">
+      <c r="I13" s="57">
+        <v>0</v>
+      </c>
+      <c r="J13" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="63">
+      <c r="C14" s="57">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="D14" s="63">
+      <c r="D14" s="57">
         <v>0.128</v>
       </c>
-      <c r="E14" s="63">
+      <c r="E14" s="57">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="57">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="57">
         <v>0.17299999999999999</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="57">
         <v>60</v>
       </c>
-      <c r="I14" s="63">
-        <v>0</v>
-      </c>
-      <c r="J14" s="63">
+      <c r="I14" s="57">
+        <v>0</v>
+      </c>
+      <c r="J14" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="63">
+      <c r="C15" s="57">
         <v>1.0920000000000001</v>
       </c>
-      <c r="D15" s="63">
+      <c r="D15" s="57">
         <v>1.2</v>
       </c>
-      <c r="E15" s="63">
+      <c r="E15" s="57">
         <v>1.3029999999999999</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="57">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="G15" s="63">
+      <c r="G15" s="57">
         <v>1.2949999999999999</v>
       </c>
-      <c r="H15" s="63">
+      <c r="H15" s="57">
         <v>12</v>
       </c>
-      <c r="I15" s="63">
-        <v>0</v>
-      </c>
-      <c r="J15" s="63">
+      <c r="I15" s="57">
+        <v>0</v>
+      </c>
+      <c r="J15" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="63">
+      <c r="C16" s="57">
         <v>1.08</v>
       </c>
-      <c r="D16" s="63">
+      <c r="D16" s="57">
         <v>1.236</v>
       </c>
-      <c r="E16" s="63">
+      <c r="E16" s="57">
         <v>1.4610000000000001</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F16" s="57">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="G16" s="63">
+      <c r="G16" s="57">
         <v>1.353</v>
       </c>
-      <c r="H16" s="63">
+      <c r="H16" s="57">
         <v>35</v>
       </c>
-      <c r="I16" s="63">
-        <v>0</v>
-      </c>
-      <c r="J16" s="63">
+      <c r="I16" s="57">
+        <v>0</v>
+      </c>
+      <c r="J16" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="63">
+      <c r="C17" s="57">
         <v>1.5469999999999999</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="57">
         <v>1.8169999999999999</v>
       </c>
-      <c r="E17" s="63">
+      <c r="E17" s="57">
         <v>2.1440000000000001</v>
       </c>
-      <c r="F17" s="63">
+      <c r="F17" s="57">
         <v>0.13400000000000001</v>
       </c>
-      <c r="G17" s="63">
+      <c r="G17" s="57">
         <v>1.9970000000000001</v>
       </c>
-      <c r="H17" s="63">
+      <c r="H17" s="57">
         <v>60</v>
       </c>
-      <c r="I17" s="63">
-        <v>0</v>
-      </c>
-      <c r="J17" s="63">
+      <c r="I17" s="57">
+        <v>0</v>
+      </c>
+      <c r="J17" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="63">
+      <c r="C18" s="57">
         <v>1.056</v>
       </c>
-      <c r="D18" s="63">
+      <c r="D18" s="57">
         <v>1.202</v>
       </c>
-      <c r="E18" s="63">
+      <c r="E18" s="57">
         <v>1.327</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="57">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="G18" s="63">
+      <c r="G18" s="57">
         <v>1.296</v>
       </c>
-      <c r="H18" s="63">
+      <c r="H18" s="57">
         <v>12</v>
       </c>
-      <c r="I18" s="63">
-        <v>0</v>
-      </c>
-      <c r="J18" s="63">
+      <c r="I18" s="57">
+        <v>0</v>
+      </c>
+      <c r="J18" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="63">
+      <c r="C19" s="57">
         <v>0.65900000000000003</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="57">
         <v>0.9</v>
       </c>
-      <c r="E19" s="63">
+      <c r="E19" s="57">
         <v>1.1879999999999999</v>
       </c>
-      <c r="F19" s="63">
+      <c r="F19" s="57">
         <v>0.128</v>
       </c>
-      <c r="G19" s="63">
+      <c r="G19" s="57">
         <v>1.073</v>
       </c>
-      <c r="H19" s="63">
+      <c r="H19" s="57">
         <v>24</v>
       </c>
-      <c r="I19" s="63">
-        <v>0</v>
-      </c>
-      <c r="J19" s="63">
+      <c r="I19" s="57">
+        <v>0</v>
+      </c>
+      <c r="J19" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="63">
+      <c r="C20" s="57">
         <v>0.59599999999999997</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D20" s="57">
         <v>0.69499999999999995</v>
       </c>
-      <c r="E20" s="63">
+      <c r="E20" s="57">
         <v>0.85199999999999998</v>
       </c>
-      <c r="F20" s="63">
+      <c r="F20" s="57">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G20" s="63">
+      <c r="G20" s="57">
         <v>0.76</v>
       </c>
-      <c r="H20" s="63">
+      <c r="H20" s="57">
         <v>32</v>
       </c>
-      <c r="I20" s="63">
-        <v>0</v>
-      </c>
-      <c r="J20" s="63">
+      <c r="I20" s="57">
+        <v>0</v>
+      </c>
+      <c r="J20" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5101,13 +5110,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
     </row>
     <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
@@ -5260,13 +5269,13 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="62" t="s">
+      <c r="E23" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
@@ -5426,13 +5435,13 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="62" t="s">
+      <c r="E35" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="8" t="s">
